--- a/Mifos Automation Excels/Client/4588-RBI-DISBLOANON02JAN-instalmentFEE-INDCOLLSHEETON10JAN.xlsx
+++ b/Mifos Automation Excels/Client/4588-RBI-DISBLOANON02JAN-instalmentFEE-INDCOLLSHEETON10JAN.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
@@ -570,8 +570,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.875" customWidth="1"/>
-    <col min="2" max="2" width="45.625" customWidth="1"/>
+    <col min="1" max="1" width="32.85546875" customWidth="1"/>
+    <col min="2" max="2" width="45.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -693,15 +693,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -736,18 +739,19 @@
       <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="1"/>
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="3">
@@ -774,8 +778,9 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q2" s="2"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -808,17 +813,19 @@
       <c r="L3" s="2">
         <v>953.11</v>
       </c>
-      <c r="M3" s="2">
-        <v>0</v>
-      </c>
+      <c r="M3" s="2"/>
       <c r="N3" s="2">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2">
         <v>953.11</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2">
         <v>3.3</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -853,18 +860,19 @@
       <c r="L4" s="2">
         <v>3.3</v>
       </c>
-      <c r="M4" s="2">
-        <v>0</v>
-      </c>
+      <c r="M4" s="2"/>
       <c r="N4" s="2">
         <v>0</v>
       </c>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O4" s="2">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -897,18 +905,19 @@
       <c r="L5" s="2">
         <v>0</v>
       </c>
-      <c r="M5" s="2">
-        <v>0</v>
-      </c>
+      <c r="M5" s="2"/>
       <c r="N5" s="2">
         <v>0</v>
       </c>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2">
+      <c r="O5" s="2">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2">
         <v>953.11</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -927,7 +936,7 @@
         <v>7500.01</v>
       </c>
       <c r="H6" s="2">
-        <v>21.39</v>
+        <v>21.16</v>
       </c>
       <c r="I6" s="2">
         <v>100</v>
@@ -936,23 +945,24 @@
         <v>0</v>
       </c>
       <c r="K6" s="2">
-        <v>954.72</v>
+        <v>954.49</v>
       </c>
       <c r="L6" s="2">
         <v>0</v>
       </c>
-      <c r="M6" s="2">
-        <v>0</v>
-      </c>
+      <c r="M6" s="2"/>
       <c r="N6" s="2">
         <v>0</v>
       </c>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2">
-        <v>954.72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O6" s="2">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2">
+        <v>954.49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -971,7 +981,7 @@
         <v>6666.68</v>
       </c>
       <c r="H7" s="2">
-        <v>21.39</v>
+        <v>21.16</v>
       </c>
       <c r="I7" s="2">
         <v>100</v>
@@ -980,23 +990,24 @@
         <v>0</v>
       </c>
       <c r="K7" s="2">
-        <v>954.72</v>
+        <v>954.49</v>
       </c>
       <c r="L7" s="2">
         <v>0</v>
       </c>
-      <c r="M7" s="2">
-        <v>0</v>
-      </c>
+      <c r="M7" s="2"/>
       <c r="N7" s="2">
         <v>0</v>
       </c>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2">
-        <v>954.72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O7" s="2">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2">
+        <v>954.49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -1015,7 +1026,7 @@
         <v>5833.35</v>
       </c>
       <c r="H8" s="2">
-        <v>21.39</v>
+        <v>21.16</v>
       </c>
       <c r="I8" s="2">
         <v>100</v>
@@ -1024,23 +1035,24 @@
         <v>0</v>
       </c>
       <c r="K8" s="2">
-        <v>954.72</v>
+        <v>954.49</v>
       </c>
       <c r="L8" s="2">
         <v>0</v>
       </c>
-      <c r="M8" s="2">
-        <v>0</v>
-      </c>
+      <c r="M8" s="2"/>
       <c r="N8" s="2">
         <v>0</v>
       </c>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2">
-        <v>954.72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O8" s="2">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2">
+        <v>954.49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -1059,7 +1071,7 @@
         <v>5000.0200000000004</v>
       </c>
       <c r="H9" s="2">
-        <v>21.39</v>
+        <v>21.16</v>
       </c>
       <c r="I9" s="2">
         <v>100</v>
@@ -1068,23 +1080,24 @@
         <v>0</v>
       </c>
       <c r="K9" s="2">
-        <v>954.72</v>
+        <v>954.49</v>
       </c>
       <c r="L9" s="2">
         <v>0</v>
       </c>
-      <c r="M9" s="2">
-        <v>0</v>
-      </c>
+      <c r="M9" s="2"/>
       <c r="N9" s="2">
         <v>0</v>
       </c>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2">
-        <v>954.72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O9" s="2">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2">
+        <v>954.49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -1103,7 +1116,7 @@
         <v>4166.6899999999996</v>
       </c>
       <c r="H10" s="2">
-        <v>21.39</v>
+        <v>21.16</v>
       </c>
       <c r="I10" s="2">
         <v>100</v>
@@ -1112,23 +1125,24 @@
         <v>0</v>
       </c>
       <c r="K10" s="2">
-        <v>954.72</v>
+        <v>954.49</v>
       </c>
       <c r="L10" s="2">
         <v>0</v>
       </c>
-      <c r="M10" s="2">
-        <v>0</v>
-      </c>
+      <c r="M10" s="2"/>
       <c r="N10" s="2">
         <v>0</v>
       </c>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2">
-        <v>954.72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O10" s="2">
+        <v>0</v>
+      </c>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2">
+        <v>954.49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -1147,7 +1161,7 @@
         <v>3333.36</v>
       </c>
       <c r="H11" s="2">
-        <v>21.39</v>
+        <v>21.16</v>
       </c>
       <c r="I11" s="2">
         <v>100</v>
@@ -1156,23 +1170,24 @@
         <v>0</v>
       </c>
       <c r="K11" s="2">
-        <v>954.72</v>
+        <v>954.49</v>
       </c>
       <c r="L11" s="2">
         <v>0</v>
       </c>
-      <c r="M11" s="2">
-        <v>0</v>
-      </c>
+      <c r="M11" s="2"/>
       <c r="N11" s="2">
         <v>0</v>
       </c>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2">
-        <v>954.72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O11" s="2">
+        <v>0</v>
+      </c>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2">
+        <v>954.49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -1191,7 +1206,7 @@
         <v>2500.0300000000002</v>
       </c>
       <c r="H12" s="2">
-        <v>21.39</v>
+        <v>21.16</v>
       </c>
       <c r="I12" s="2">
         <v>100</v>
@@ -1200,23 +1215,24 @@
         <v>0</v>
       </c>
       <c r="K12" s="2">
-        <v>954.72</v>
+        <v>954.49</v>
       </c>
       <c r="L12" s="2">
         <v>0</v>
       </c>
-      <c r="M12" s="2">
-        <v>0</v>
-      </c>
+      <c r="M12" s="2"/>
       <c r="N12" s="2">
         <v>0</v>
       </c>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2">
-        <v>954.72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O12" s="2">
+        <v>0</v>
+      </c>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2">
+        <v>954.49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -1235,7 +1251,7 @@
         <v>1666.7</v>
       </c>
       <c r="H13" s="2">
-        <v>21.39</v>
+        <v>21.16</v>
       </c>
       <c r="I13" s="2">
         <v>100</v>
@@ -1244,23 +1260,24 @@
         <v>0</v>
       </c>
       <c r="K13" s="2">
-        <v>954.72</v>
+        <v>954.49</v>
       </c>
       <c r="L13" s="2">
         <v>0</v>
       </c>
-      <c r="M13" s="2">
-        <v>0</v>
-      </c>
+      <c r="M13" s="2"/>
       <c r="N13" s="2">
         <v>0</v>
       </c>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2">
-        <v>954.72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O13" s="2">
+        <v>0</v>
+      </c>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2">
+        <v>954.49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -1279,7 +1296,7 @@
         <v>833.37</v>
       </c>
       <c r="H14" s="2">
-        <v>21.39</v>
+        <v>21.16</v>
       </c>
       <c r="I14" s="2">
         <v>100</v>
@@ -1288,23 +1305,24 @@
         <v>0</v>
       </c>
       <c r="K14" s="2">
-        <v>954.72</v>
+        <v>954.49</v>
       </c>
       <c r="L14" s="2">
         <v>0</v>
       </c>
-      <c r="M14" s="2">
-        <v>0</v>
-      </c>
+      <c r="M14" s="2"/>
       <c r="N14" s="2">
         <v>0</v>
       </c>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2">
-        <v>954.72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O14" s="2">
+        <v>0</v>
+      </c>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2">
+        <v>954.49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -1323,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="2">
-        <v>21.39</v>
+        <v>21.16</v>
       </c>
       <c r="I15" s="2">
         <v>100</v>
@@ -1332,20 +1350,66 @@
         <v>0</v>
       </c>
       <c r="K15" s="2">
-        <v>954.76</v>
+        <v>954.53</v>
       </c>
       <c r="L15" s="2">
         <v>0</v>
       </c>
-      <c r="M15" s="2">
-        <v>0</v>
-      </c>
+      <c r="M15" s="2"/>
       <c r="N15" s="2">
         <v>0</v>
       </c>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2">
-        <v>954.76</v>
+      <c r="O15" s="2">
+        <v>0</v>
+      </c>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2">
+        <v>954.53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2">
+        <v>5</v>
+      </c>
+      <c r="C16" s="3">
+        <v>42095</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>15.12</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0</v>
+      </c>
+      <c r="K16" s="2">
+        <v>15.12</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0</v>
+      </c>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2">
+        <v>0</v>
+      </c>
+      <c r="O16" s="2">
+        <v>0</v>
+      </c>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2">
+        <v>15.12</v>
       </c>
     </row>
   </sheetData>
